--- a/Repository Details.xlsx
+++ b/Repository Details.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>B210101001</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>https://github.com/FariyaAhmedosd/Data-structure</t>
+  </si>
+  <si>
+    <t>https://github.com/AlAmin-Kabir/Data-Structure</t>
   </si>
 </sst>
 </file>
@@ -547,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -817,6 +820,9 @@
       </c>
       <c r="B31" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -839,8 +845,9 @@
     <hyperlink ref="C17" r:id="rId16"/>
     <hyperlink ref="C5" r:id="rId17"/>
     <hyperlink ref="C11" r:id="rId18"/>
+    <hyperlink ref="C31" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/Repository Details.xlsx
+++ b/Repository Details.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>B210101001</t>
   </si>
@@ -220,6 +220,24 @@
   </si>
   <si>
     <t>https://github.com/AlAmin-Kabir/Data-Structure</t>
+  </si>
+  <si>
+    <t>https://github.com/Khan-siyam/Siyam-Khan-CSE-CSTU-B210101019</t>
+  </si>
+  <si>
+    <t>https://github.com/Dheeraj-64/DSA---CSTU</t>
+  </si>
+  <si>
+    <t>https://github.com/CSTU-ALAMIN-56/CSE-2102</t>
+  </si>
+  <si>
+    <t>https://github.com/SHUVO-05/CSE-2102</t>
+  </si>
+  <si>
+    <t>https://github.com/imtiazrabby</t>
+  </si>
+  <si>
+    <t>https://github.com/Zol-piE/CSE-2101-B210101017</t>
   </si>
 </sst>
 </file>
@@ -550,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,6 +616,9 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -614,6 +635,9 @@
       <c r="B6" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -627,6 +651,9 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -675,6 +702,9 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -710,6 +740,9 @@
       <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -726,6 +759,9 @@
       <c r="A20" t="s">
         <v>18</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -753,6 +789,9 @@
       <c r="B23" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -811,6 +850,9 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
         <v>40</v>
       </c>
     </row>
@@ -846,8 +888,12 @@
     <hyperlink ref="C5" r:id="rId17"/>
     <hyperlink ref="C11" r:id="rId18"/>
     <hyperlink ref="C31" r:id="rId19"/>
+    <hyperlink ref="C20" r:id="rId20"/>
+    <hyperlink ref="C8" r:id="rId21"/>
+    <hyperlink ref="C4" r:id="rId22"/>
+    <hyperlink ref="C18" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
--- a/Repository Details.xlsx
+++ b/Repository Details.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>B210101001</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>https://github.com/Zol-piE/CSE-2101-B210101017</t>
+  </si>
+  <si>
+    <t>https://github.com/RifatEmam/DATA-STRUCTURE</t>
   </si>
 </sst>
 </file>
@@ -568,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -835,6 +838,9 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -892,8 +898,9 @@
     <hyperlink ref="C8" r:id="rId21"/>
     <hyperlink ref="C4" r:id="rId22"/>
     <hyperlink ref="C18" r:id="rId23"/>
+    <hyperlink ref="C28" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
--- a/Repository Details.xlsx
+++ b/Repository Details.xlsx
@@ -219,9 +219,6 @@
     <t>https://github.com/FariyaAhmedosd/Data-structure</t>
   </si>
   <si>
-    <t>https://github.com/AlAmin-Kabir/Data-Structure</t>
-  </si>
-  <si>
     <t>https://github.com/Khan-siyam/Siyam-Khan-CSE-CSTU-B210101019</t>
   </si>
   <si>
@@ -241,6 +238,9 @@
   </si>
   <si>
     <t>https://github.com/RifatEmam/DATA-STRUCTURE</t>
+  </si>
+  <si>
+    <t>https://github.com/AlAmin-Kabir/CSTU-CSE-2101-Data-Structure--B210101030</t>
   </si>
 </sst>
 </file>
@@ -572,7 +572,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -639,7 +639,7 @@
         <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -655,7 +655,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -744,7 +744,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -763,7 +763,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -793,7 +793,7 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -840,7 +840,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -870,7 +870,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Repository Details.xlsx
+++ b/Repository Details.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>B210101001</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>https://github.com/AlAmin-Kabir/CSTU-CSE-2101-Data-Structure--B210101030</t>
+  </si>
+  <si>
+    <t>https://github.com/zenith123416/Data-Structure</t>
+  </si>
+  <si>
+    <t>Tahan-Attin/Data-Structure (github.com)</t>
   </si>
 </sst>
 </file>
@@ -571,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -823,6 +829,9 @@
         <v>24</v>
       </c>
       <c r="B26" s="1"/>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -849,6 +858,9 @@
       </c>
       <c r="B29" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -899,8 +911,9 @@
     <hyperlink ref="C4" r:id="rId22"/>
     <hyperlink ref="C18" r:id="rId23"/>
     <hyperlink ref="C28" r:id="rId24"/>
+    <hyperlink ref="C29" r:id="rId25" display="https://github.com/Tahan-Attin/Data-Structure"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>